--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\Desktop\Важное\Учёба\3 курс, 1 семестр\ПСА\Лаба 1\Laba1\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7982878A-3A15-4619-9F6F-F6C9892C9DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A5F3B-0FC5-400F-8EC9-755274603EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="3640" windowWidth="12820" windowHeight="9760" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\Desktop\Важное\Учёба\3 курс, 1 семестр\ПСА\Лаба 1\Laba1\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\Desktop\Важное\Учёба\3 курс, 1 семестр\ПСА\MyLaba1\MyLaba1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A5F3B-0FC5-400F-8EC9-755274603EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA4F377-B9A9-4E38-9421-F5B5564714BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
@@ -185,7 +185,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Курс доллара США</t>
+    <t>DollarExchangeRate</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
